--- a/biology/Botanique/Ophrys_jaune/Ophrys_jaune.xlsx
+++ b/biology/Botanique/Ophrys_jaune/Ophrys_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ophrys lutea
 L'Ophrys jaune (Ophrys lutea) est une espèce d'orchidée terrestre européenne, méditerranéenne et nord-africaine.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Larges sépales latéraux asymétriques, sépale dorsal abaissé vers le gynostème.
 Labelle cordiforme jaune ou avec une macule veloutée bleu-gris ou marbrée de brun.
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,7 +586,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Mars à mai.
 </t>
@@ -601,7 +619,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pleine lumière à ombre sur substrats calcaires ou siliceux secs à frais, pelouses, friches, broussailles, bois clairs.
 </t>
@@ -632,7 +652,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Bassin méditerranéen
 En France : méditerranéo-atlantique, répandue, au nord-ouest jusqu'en Charente, Deux-Sèvres et Vienne.
@@ -668,7 +690,9 @@
           <t>Autres espèces du groupe fusca-lutea</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>sous-groupe d'Ophrys iricolor
 sous-groupe d'Ophrys fusca
